--- a/additional_quota_new.xlsx
+++ b/additional_quota_new.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -627,6 +627,9 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F23" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">

--- a/additional_quota_new.xlsx
+++ b/additional_quota_new.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/additional_quota_new.xlsx
+++ b/additional_quota_new.xlsx
@@ -412,8 +412,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/additional_quota_new.xlsx
+++ b/additional_quota_new.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,6 +515,15 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">

--- a/additional_quota_new.xlsx
+++ b/additional_quota_new.xlsx
@@ -412,12 +412,13 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.43"/>
   </cols>
   <sheetData>
@@ -515,13 +516,13 @@
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="0" t="n">
+      <c r="D12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -580,16 +581,16 @@
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="0" t="n">
+      <c r="C19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -600,16 +601,16 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>7</v>
       </c>
     </row>
@@ -636,7 +637,7 @@
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -647,16 +648,16 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="D24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -675,6 +676,9 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C26" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -683,6 +687,18 @@
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -707,16 +723,16 @@
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" s="0" t="n">
+      <c r="D30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -759,16 +775,16 @@
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>6</v>
       </c>
     </row>

--- a/additional_quota_new.xlsx
+++ b/additional_quota_new.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,6 +679,9 @@
       <c r="C26" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">

--- a/additional_quota_new.xlsx
+++ b/additional_quota_new.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -676,10 +676,10 @@
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -690,16 +690,16 @@
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" s="0" t="n">
+      <c r="C27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -745,6 +745,12 @@
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/additional_quota_new.xlsx
+++ b/additional_quota_new.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -746,10 +746,10 @@
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D31" s="0" t="n">
+      <c r="C31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -759,6 +759,18 @@
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
